--- a/Stud Data/Sample Student Database.xlsx
+++ b/Stud Data/Sample Student Database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\Git\ACMaS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\AutoMBA\Stud Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB1A7D4B-3486-4142-8D7C-B58BAB000356}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E60D5CD-65C0-48DE-A208-6ABFF80C7710}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8130" xr2:uid="{AFC29160-401D-4461-8898-326E7690AE3C}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$I$133</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$J$133</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="537" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="670" uniqueCount="370">
   <si>
     <t>DoB</t>
   </si>
@@ -742,6 +742,402 @@
   </si>
   <si>
     <t>Shelatkar</t>
+  </si>
+  <si>
+    <t>Full Name</t>
+  </si>
+  <si>
+    <t>Vasant Govind Patil</t>
+  </si>
+  <si>
+    <t>Debjyoti Roy Patil</t>
+  </si>
+  <si>
+    <t>Kaustav Saha Patil</t>
+  </si>
+  <si>
+    <t>Debobrata Podder Patil</t>
+  </si>
+  <si>
+    <t>Anurag Mark Topno</t>
+  </si>
+  <si>
+    <t>Tarun Minz Topno</t>
+  </si>
+  <si>
+    <t>Praveen Rao Rokkam</t>
+  </si>
+  <si>
+    <t>Arindam Sharma Rokkam</t>
+  </si>
+  <si>
+    <t>Kaustubh Tripathi Rokkam</t>
+  </si>
+  <si>
+    <t>Nakul Gupta Rokkam</t>
+  </si>
+  <si>
+    <t>Gaurav Kumar Rokkam</t>
+  </si>
+  <si>
+    <t>Abhiram Kasina Rokkam</t>
+  </si>
+  <si>
+    <t>Biplab Sinha Rokkam</t>
+  </si>
+  <si>
+    <t>M Jagan Mohan</t>
+  </si>
+  <si>
+    <t>Asit Parija Mohan</t>
+  </si>
+  <si>
+    <t>Shenoy Naresh Keshav</t>
+  </si>
+  <si>
+    <t>Amit Kumar Suthar</t>
+  </si>
+  <si>
+    <t>Amar Singh Patel</t>
+  </si>
+  <si>
+    <t>Rahul Jaimini Patel</t>
+  </si>
+  <si>
+    <t>Rohit Rajgarhia Patel</t>
+  </si>
+  <si>
+    <t>Akshit Sharma Patel</t>
+  </si>
+  <si>
+    <t>Divya Kumar Kala</t>
+  </si>
+  <si>
+    <t>Sri Harshad Kala</t>
+  </si>
+  <si>
+    <t>Micky Mrinal Minz</t>
+  </si>
+  <si>
+    <t>Nishant Mundu Minz</t>
+  </si>
+  <si>
+    <t>Vinu Rajashekhar Minz</t>
+  </si>
+  <si>
+    <t>Mainack Mondal Minz</t>
+  </si>
+  <si>
+    <t>Debabrata Dey Minz</t>
+  </si>
+  <si>
+    <t>Vivekananda Najumudheen Bhat</t>
+  </si>
+  <si>
+    <t>Praveen Ankit Sonare</t>
+  </si>
+  <si>
+    <t>Ravi Rattan Sonare</t>
+  </si>
+  <si>
+    <t>Anindya Bhowmik Sonare</t>
+  </si>
+  <si>
+    <t>Bishal Lama Sonare</t>
+  </si>
+  <si>
+    <t>Arun Kumar Saragadam</t>
+  </si>
+  <si>
+    <t>Arit Kumar Mondal</t>
+  </si>
+  <si>
+    <t>Akash Rao Mondal</t>
+  </si>
+  <si>
+    <t>Marut Agarwal Mondal</t>
+  </si>
+  <si>
+    <t>Abhishek Pratap Singh</t>
+  </si>
+  <si>
+    <t>Sushant Kumar Singh</t>
+  </si>
+  <si>
+    <t>Arpit Mishra Singh</t>
+  </si>
+  <si>
+    <t>Abhinav Gupta Singh</t>
+  </si>
+  <si>
+    <t>Togarrati Venkata Nagesh</t>
+  </si>
+  <si>
+    <t>Pam Revanth Nagesh</t>
+  </si>
+  <si>
+    <t>Gourav Khaneja Nagesh</t>
+  </si>
+  <si>
+    <t>Mayank Jaiswal Nagesh</t>
+  </si>
+  <si>
+    <t>Amit Shanker Nagesh</t>
+  </si>
+  <si>
+    <t>Abhinav Anand Nagesh</t>
+  </si>
+  <si>
+    <t>Varun K Choudhary</t>
+  </si>
+  <si>
+    <t>Diptesh Chatterjee Choudhary</t>
+  </si>
+  <si>
+    <t>Anuj Kumar Singh</t>
+  </si>
+  <si>
+    <t>Dilpreet Singh Singh</t>
+  </si>
+  <si>
+    <t>Amit Sharma Singh</t>
+  </si>
+  <si>
+    <t>Kammara Yashwanth Kumar</t>
+  </si>
+  <si>
+    <t>Mani Kumar Nallani</t>
+  </si>
+  <si>
+    <t>Rahul Saxena Nallani</t>
+  </si>
+  <si>
+    <t>Sahil Goyal Nallani</t>
+  </si>
+  <si>
+    <t>Dodda Raviteja Nallani</t>
+  </si>
+  <si>
+    <t>Anirudha Patro Nallani</t>
+  </si>
+  <si>
+    <t>Mullapudi Pavan Nithin</t>
+  </si>
+  <si>
+    <t>Sameer Hembrom Nithin</t>
+  </si>
+  <si>
+    <t>Ayan Mazumdar Nithin</t>
+  </si>
+  <si>
+    <t>Kiran Kumar Bollam</t>
+  </si>
+  <si>
+    <t>Biswajyoti Das Bollam</t>
+  </si>
+  <si>
+    <t>Arka Aloke Bhattacharya</t>
+  </si>
+  <si>
+    <t>Abhijeet Kumar Bhattacharya</t>
+  </si>
+  <si>
+    <t>Alok Kumar Yadav</t>
+  </si>
+  <si>
+    <t>Anshul Rai Yadav</t>
+  </si>
+  <si>
+    <t>Mohit Singh Yadav</t>
+  </si>
+  <si>
+    <t>Biswajeet Mistry Yadav</t>
+  </si>
+  <si>
+    <t>Badal Murmu Yadav</t>
+  </si>
+  <si>
+    <t>Chinthala Sathish Chandra</t>
+  </si>
+  <si>
+    <t>Vadde Sanjeev Chandra</t>
+  </si>
+  <si>
+    <t>B Rajender Naik</t>
+  </si>
+  <si>
+    <t>Gaurav Mehta Naik</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Molleti</t>
+  </si>
+  <si>
+    <t>Rahul Kumar Srivastava</t>
+  </si>
+  <si>
+    <t>Saurabh Kumar Goyal</t>
+  </si>
+  <si>
+    <t>Narendra Kumar Tangella</t>
+  </si>
+  <si>
+    <t>Nandam Karthik Kumar</t>
+  </si>
+  <si>
+    <t>Atul Kumar Gupta</t>
+  </si>
+  <si>
+    <t>Harsh Vardhan Agarwal</t>
+  </si>
+  <si>
+    <t>Rayman Preet Agarwal</t>
+  </si>
+  <si>
+    <t>Aniket Nayak Agarwal</t>
+  </si>
+  <si>
+    <t>Siddharth Raghuvansi Agarwal</t>
+  </si>
+  <si>
+    <t>Sayantan Ghosh Agarwal</t>
+  </si>
+  <si>
+    <t>Aurosish Mishra Agarwal</t>
+  </si>
+  <si>
+    <t>Ashish Jhunjhunwala Agarwal</t>
+  </si>
+  <si>
+    <t>Sujan Kundu Agarwal</t>
+  </si>
+  <si>
+    <t>Bivas Mitra Agarwal</t>
+  </si>
+  <si>
+    <t>Sujan Kumar Saha</t>
+  </si>
+  <si>
+    <t>Plaban Kumar Bhowmick</t>
+  </si>
+  <si>
+    <t>Arnab Kumar Sarkar</t>
+  </si>
+  <si>
+    <t>Alimpan Barua Boro</t>
+  </si>
+  <si>
+    <t>Keshav Prawasi Singh</t>
+  </si>
+  <si>
+    <t>Neetesh Gupta Singh</t>
+  </si>
+  <si>
+    <t>Naveen Kumar Singh</t>
+  </si>
+  <si>
+    <t>Sumit Sinha Singh</t>
+  </si>
+  <si>
+    <t>Korlam Gautam Singh</t>
+  </si>
+  <si>
+    <t>Dhoble Sumit Singh</t>
+  </si>
+  <si>
+    <t>Nandish Tella Naidu</t>
+  </si>
+  <si>
+    <t>Gautam Kumar Reddy</t>
+  </si>
+  <si>
+    <t>Ramdutt Kishav Sharma</t>
+  </si>
+  <si>
+    <t>Pratik Kishav Agarwal</t>
+  </si>
+  <si>
+    <t>Rishav Kishav Agarwal</t>
+  </si>
+  <si>
+    <t>Rakesh Prudhvi Kumar</t>
+  </si>
+  <si>
+    <t>Sayak Mitra Kumar</t>
+  </si>
+  <si>
+    <t>Achin Gautam Agarwal</t>
+  </si>
+  <si>
+    <t>Avishek Gautam Banerjee</t>
+  </si>
+  <si>
+    <t>Vighnesh Gautam Avadhani</t>
+  </si>
+  <si>
+    <t>Abhinav Gautam Chandel</t>
+  </si>
+  <si>
+    <t>Arvind Gautam Das</t>
+  </si>
+  <si>
+    <t>Sunita Suman Das</t>
+  </si>
+  <si>
+    <t>Monotosh Suman Das</t>
+  </si>
+  <si>
+    <t>Sanket Suman Agarwal</t>
+  </si>
+  <si>
+    <t>Arun Dobriyal Walia</t>
+  </si>
+  <si>
+    <t>Rishav Kishav Mishra</t>
+  </si>
+  <si>
+    <t>Aruni Kishav Choudhary</t>
+  </si>
+  <si>
+    <t>Gyan Baboo Jain</t>
+  </si>
+  <si>
+    <t>Rohit Romesh Jain</t>
+  </si>
+  <si>
+    <t>Anshul Gupta Jain</t>
+  </si>
+  <si>
+    <t>Yatendra Dalal Jain</t>
+  </si>
+  <si>
+    <t>Ravi Shankar Jain</t>
+  </si>
+  <si>
+    <t>Prav Chheda Singh</t>
+  </si>
+  <si>
+    <t>Anshuman Tripathi Singh</t>
+  </si>
+  <si>
+    <t>Kripasindhu Sarkar Singh</t>
+  </si>
+  <si>
+    <t>Gaurab Basu Singh</t>
+  </si>
+  <si>
+    <t>Ashis Kumar Sharma</t>
+  </si>
+  <si>
+    <t>Aniket Jha Yadav</t>
+  </si>
+  <si>
+    <t>Rahul Rakesh Sharma</t>
+  </si>
+  <si>
+    <t>Raj Mohan Saxena</t>
+  </si>
+  <si>
+    <t>Komal Sameer Shelatkar</t>
   </si>
 </sst>
 </file>
@@ -1110,7 +1506,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5826A716-B557-4E76-9620-9E98F48B9924}">
-  <dimension ref="A1:I133"/>
+  <dimension ref="A1:J133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1119,14 +1515,15 @@
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.140625" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>7</v>
       </c>
@@ -1139,23 +1536,26 @@
       <c r="D1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>1</v>
-      </c>
       <c r="H1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1719001</v>
       </c>
@@ -1168,23 +1568,26 @@
       <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="1">
+      <c r="E2" t="s">
+        <v>239</v>
+      </c>
+      <c r="F2" s="1">
         <v>34686</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
+      <c r="H2" t="s">
+        <v>3</v>
       </c>
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1719002</v>
       </c>
@@ -1197,23 +1600,26 @@
       <c r="D3" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" t="s">
+        <v>240</v>
+      </c>
+      <c r="F3" s="1">
         <v>34687</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>24</v>
       </c>
-      <c r="G3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
+      <c r="H3" t="s">
+        <v>4</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1719003</v>
       </c>
@@ -1226,23 +1632,26 @@
       <c r="D4" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="1">
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="1">
         <v>34323</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>25</v>
       </c>
-      <c r="G4" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+      <c r="H4" t="s">
+        <v>3</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1719004</v>
       </c>
@@ -1255,23 +1664,26 @@
       <c r="D5" t="s">
         <v>18</v>
       </c>
-      <c r="E5" s="1">
+      <c r="E5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F5" s="1">
         <v>34689</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>24</v>
       </c>
-      <c r="G5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
+      <c r="H5" t="s">
+        <v>4</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1719005</v>
       </c>
@@ -1284,23 +1696,26 @@
       <c r="D6" t="s">
         <v>27</v>
       </c>
-      <c r="E6" s="1">
+      <c r="E6" t="s">
+        <v>243</v>
+      </c>
+      <c r="F6" s="1">
         <v>34325</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>25</v>
       </c>
-      <c r="G6" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+      <c r="H6" t="s">
+        <v>3</v>
       </c>
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1719006</v>
       </c>
@@ -1313,23 +1728,26 @@
       <c r="D7" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E7" t="s">
+        <v>244</v>
+      </c>
+      <c r="F7" s="1">
         <v>34325</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>25</v>
       </c>
-      <c r="G7" t="s">
-        <v>4</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
+      <c r="H7" t="s">
+        <v>4</v>
       </c>
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1719007</v>
       </c>
@@ -1342,23 +1760,26 @@
       <c r="D8" t="s">
         <v>32</v>
       </c>
-      <c r="E8" s="1">
+      <c r="E8" t="s">
+        <v>245</v>
+      </c>
+      <c r="F8" s="1">
         <v>34618</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>24</v>
       </c>
-      <c r="G8" t="s">
-        <v>4</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+      <c r="H8" t="s">
+        <v>4</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1719008</v>
       </c>
@@ -1371,23 +1792,26 @@
       <c r="D9" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" t="s">
+        <v>246</v>
+      </c>
+      <c r="F9" s="1">
         <v>34671</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>24</v>
       </c>
-      <c r="G9" t="s">
-        <v>4</v>
-      </c>
-      <c r="H9">
-        <v>1</v>
+      <c r="H9" t="s">
+        <v>4</v>
       </c>
       <c r="I9">
         <v>1</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1719009</v>
       </c>
@@ -1400,23 +1824,26 @@
       <c r="D10" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="1">
+      <c r="E10" t="s">
+        <v>247</v>
+      </c>
+      <c r="F10" s="1">
         <v>34750</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>23</v>
       </c>
-      <c r="G10" t="s">
-        <v>3</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+      <c r="H10" t="s">
+        <v>3</v>
       </c>
       <c r="I10">
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1719010</v>
       </c>
@@ -1429,23 +1856,26 @@
       <c r="D11" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="1">
+      <c r="E11" t="s">
+        <v>248</v>
+      </c>
+      <c r="F11" s="1">
         <v>34598</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>24</v>
       </c>
-      <c r="G11" t="s">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
+      <c r="H11" t="s">
+        <v>4</v>
       </c>
       <c r="I11">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1719011</v>
       </c>
@@ -1458,23 +1888,26 @@
       <c r="D12" t="s">
         <v>32</v>
       </c>
-      <c r="E12" s="1">
+      <c r="E12" t="s">
+        <v>249</v>
+      </c>
+      <c r="F12" s="1">
         <v>34864</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>23</v>
       </c>
-      <c r="G12" t="s">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>1</v>
+      <c r="H12" t="s">
+        <v>3</v>
       </c>
       <c r="I12">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1719012</v>
       </c>
@@ -1487,23 +1920,26 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="1">
+      <c r="E13" t="s">
+        <v>250</v>
+      </c>
+      <c r="F13" s="1">
         <v>35051</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>23</v>
       </c>
-      <c r="G13" t="s">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+      <c r="H13" t="s">
+        <v>3</v>
       </c>
       <c r="I13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1719013</v>
       </c>
@@ -1516,23 +1952,26 @@
       <c r="D14" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="1">
+      <c r="E14" t="s">
+        <v>251</v>
+      </c>
+      <c r="F14" s="1">
         <v>34954</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>23</v>
       </c>
-      <c r="G14" t="s">
-        <v>3</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
+      <c r="H14" t="s">
+        <v>3</v>
       </c>
       <c r="I14">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1719014</v>
       </c>
@@ -1545,23 +1984,26 @@
       <c r="D15" t="s">
         <v>46</v>
       </c>
-      <c r="E15" s="1">
+      <c r="E15" t="s">
+        <v>252</v>
+      </c>
+      <c r="F15" s="1">
         <v>35175</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
-        <v>4</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
+      <c r="H15" t="s">
+        <v>4</v>
       </c>
       <c r="I15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1719015</v>
       </c>
@@ -1574,23 +2016,26 @@
       <c r="D16" t="s">
         <v>46</v>
       </c>
-      <c r="E16" s="1">
+      <c r="E16" t="s">
+        <v>253</v>
+      </c>
+      <c r="F16" s="1">
         <v>35044</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
-        <v>3</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
+      <c r="H16" t="s">
+        <v>3</v>
       </c>
       <c r="I16">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1719016</v>
       </c>
@@ -1603,23 +2048,26 @@
       <c r="D17" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="1">
+      <c r="E17" t="s">
+        <v>254</v>
+      </c>
+      <c r="F17" s="1">
         <v>35157</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>22</v>
       </c>
-      <c r="G17" t="s">
-        <v>4</v>
-      </c>
-      <c r="H17">
-        <v>1</v>
+      <c r="H17" t="s">
+        <v>4</v>
       </c>
       <c r="I17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1719017</v>
       </c>
@@ -1632,23 +2080,26 @@
       <c r="D18" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="1">
+      <c r="E18" t="s">
+        <v>255</v>
+      </c>
+      <c r="F18" s="1">
         <v>34686</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
+      <c r="H18" t="s">
+        <v>3</v>
       </c>
       <c r="I18">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1719018</v>
       </c>
@@ -1661,23 +2112,26 @@
       <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="1">
+      <c r="E19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F19" s="1">
         <v>34687</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>24</v>
       </c>
-      <c r="G19" t="s">
-        <v>4</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
+      <c r="H19" t="s">
+        <v>4</v>
       </c>
       <c r="I19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1719019</v>
       </c>
@@ -1690,23 +2144,26 @@
       <c r="D20" t="s">
         <v>6</v>
       </c>
-      <c r="E20" s="1">
+      <c r="E20" t="s">
+        <v>257</v>
+      </c>
+      <c r="F20" s="1">
         <v>34323</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>25</v>
       </c>
-      <c r="G20" t="s">
-        <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
+      <c r="H20" t="s">
+        <v>3</v>
       </c>
       <c r="I20">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1719020</v>
       </c>
@@ -1719,23 +2176,26 @@
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="E21" s="1">
+      <c r="E21" t="s">
+        <v>258</v>
+      </c>
+      <c r="F21" s="1">
         <v>34689</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>24</v>
       </c>
-      <c r="G21" t="s">
-        <v>4</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
+      <c r="H21" t="s">
+        <v>4</v>
       </c>
       <c r="I21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1719021</v>
       </c>
@@ -1748,23 +2208,26 @@
       <c r="D22" t="s">
         <v>6</v>
       </c>
-      <c r="E22" s="1">
+      <c r="E22" t="s">
+        <v>259</v>
+      </c>
+      <c r="F22" s="1">
         <v>34325</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>25</v>
       </c>
-      <c r="G22" t="s">
-        <v>3</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
+      <c r="H22" t="s">
+        <v>3</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1719022</v>
       </c>
@@ -1777,23 +2240,26 @@
       <c r="D23" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="1">
+      <c r="E23" t="s">
+        <v>260</v>
+      </c>
+      <c r="F23" s="1">
         <v>34325</v>
       </c>
-      <c r="F23">
+      <c r="G23">
         <v>25</v>
       </c>
-      <c r="G23" t="s">
-        <v>4</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
+      <c r="H23" t="s">
+        <v>4</v>
       </c>
       <c r="I23">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1719023</v>
       </c>
@@ -1806,23 +2272,26 @@
       <c r="D24" t="s">
         <v>60</v>
       </c>
-      <c r="E24" s="1">
+      <c r="E24" t="s">
+        <v>261</v>
+      </c>
+      <c r="F24" s="1">
         <v>34618</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>24</v>
       </c>
-      <c r="G24" t="s">
-        <v>4</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
+      <c r="H24" t="s">
+        <v>4</v>
       </c>
       <c r="I24">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1719024</v>
       </c>
@@ -1835,23 +2304,26 @@
       <c r="D25" t="s">
         <v>29</v>
       </c>
-      <c r="E25" s="1">
+      <c r="E25" t="s">
+        <v>262</v>
+      </c>
+      <c r="F25" s="1">
         <v>34671</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>24</v>
       </c>
-      <c r="G25" t="s">
-        <v>4</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
+      <c r="H25" t="s">
+        <v>4</v>
       </c>
       <c r="I25">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1719025</v>
       </c>
@@ -1864,23 +2336,26 @@
       <c r="D26" t="s">
         <v>29</v>
       </c>
-      <c r="E26" s="1">
+      <c r="E26" t="s">
+        <v>263</v>
+      </c>
+      <c r="F26" s="1">
         <v>34750</v>
       </c>
-      <c r="F26">
+      <c r="G26">
         <v>23</v>
       </c>
-      <c r="G26" t="s">
-        <v>3</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
+      <c r="H26" t="s">
+        <v>3</v>
       </c>
       <c r="I26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>1719026</v>
       </c>
@@ -1893,23 +2368,26 @@
       <c r="D27" t="s">
         <v>29</v>
       </c>
-      <c r="E27" s="1">
+      <c r="E27" t="s">
+        <v>264</v>
+      </c>
+      <c r="F27" s="1">
         <v>34598</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>24</v>
       </c>
-      <c r="G27" t="s">
-        <v>4</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
+      <c r="H27" t="s">
+        <v>4</v>
       </c>
       <c r="I27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>1719027</v>
       </c>
@@ -1922,23 +2400,26 @@
       <c r="D28" t="s">
         <v>29</v>
       </c>
-      <c r="E28" s="1">
+      <c r="E28" t="s">
+        <v>265</v>
+      </c>
+      <c r="F28" s="1">
         <v>34864</v>
       </c>
-      <c r="F28">
+      <c r="G28">
         <v>23</v>
       </c>
-      <c r="G28" t="s">
-        <v>3</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
+      <c r="H28" t="s">
+        <v>3</v>
       </c>
       <c r="I28">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>1719028</v>
       </c>
@@ -1951,23 +2432,26 @@
       <c r="D29" t="s">
         <v>29</v>
       </c>
-      <c r="E29" s="1">
+      <c r="E29" t="s">
+        <v>266</v>
+      </c>
+      <c r="F29" s="1">
         <v>35051</v>
       </c>
-      <c r="F29">
+      <c r="G29">
         <v>23</v>
       </c>
-      <c r="G29" t="s">
-        <v>3</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
+      <c r="H29" t="s">
+        <v>3</v>
       </c>
       <c r="I29">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1719029</v>
       </c>
@@ -1980,23 +2464,26 @@
       <c r="D30" t="s">
         <v>74</v>
       </c>
-      <c r="E30" s="1">
+      <c r="E30" t="s">
+        <v>267</v>
+      </c>
+      <c r="F30" s="1">
         <v>34954</v>
       </c>
-      <c r="F30">
+      <c r="G30">
         <v>23</v>
       </c>
-      <c r="G30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
+      <c r="H30" t="s">
+        <v>3</v>
       </c>
       <c r="I30">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>1719030</v>
       </c>
@@ -2009,23 +2496,26 @@
       <c r="D31" t="s">
         <v>77</v>
       </c>
-      <c r="E31" s="1">
+      <c r="E31" t="s">
+        <v>268</v>
+      </c>
+      <c r="F31" s="1">
         <v>35175</v>
       </c>
-      <c r="F31">
+      <c r="G31">
         <v>22</v>
       </c>
-      <c r="G31" t="s">
-        <v>4</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
+      <c r="H31" t="s">
+        <v>4</v>
       </c>
       <c r="I31">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1719031</v>
       </c>
@@ -2038,23 +2528,26 @@
       <c r="D32" t="s">
         <v>77</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" t="s">
+        <v>269</v>
+      </c>
+      <c r="F32" s="1">
         <v>35044</v>
       </c>
-      <c r="F32">
+      <c r="G32">
         <v>23</v>
       </c>
-      <c r="G32" t="s">
-        <v>3</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
+      <c r="H32" t="s">
+        <v>3</v>
       </c>
       <c r="I32">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>1719032</v>
       </c>
@@ -2067,23 +2560,26 @@
       <c r="D33" t="s">
         <v>77</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" t="s">
+        <v>270</v>
+      </c>
+      <c r="F33" s="1">
         <v>35157</v>
       </c>
-      <c r="F33">
+      <c r="G33">
         <v>22</v>
       </c>
-      <c r="G33" t="s">
-        <v>4</v>
-      </c>
-      <c r="H33">
-        <v>1</v>
+      <c r="H33" t="s">
+        <v>4</v>
       </c>
       <c r="I33">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1719033</v>
       </c>
@@ -2096,23 +2592,26 @@
       <c r="D34" t="s">
         <v>77</v>
       </c>
-      <c r="E34" s="1">
+      <c r="E34" t="s">
+        <v>271</v>
+      </c>
+      <c r="F34" s="1">
         <v>34686</v>
       </c>
-      <c r="F34">
+      <c r="G34">
         <v>24</v>
       </c>
-      <c r="G34" t="s">
-        <v>3</v>
-      </c>
-      <c r="H34">
-        <v>1</v>
+      <c r="H34" t="s">
+        <v>3</v>
       </c>
       <c r="I34">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>1719034</v>
       </c>
@@ -2125,23 +2624,26 @@
       <c r="D35" t="s">
         <v>84</v>
       </c>
-      <c r="E35" s="1">
+      <c r="E35" t="s">
+        <v>272</v>
+      </c>
+      <c r="F35" s="1">
         <v>34687</v>
       </c>
-      <c r="F35">
+      <c r="G35">
         <v>24</v>
       </c>
-      <c r="G35" t="s">
-        <v>4</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
+      <c r="H35" t="s">
+        <v>4</v>
       </c>
       <c r="I35">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1719035</v>
       </c>
@@ -2154,23 +2656,26 @@
       <c r="D36" t="s">
         <v>70</v>
       </c>
-      <c r="E36" s="1">
+      <c r="E36" t="s">
+        <v>273</v>
+      </c>
+      <c r="F36" s="1">
         <v>34323</v>
       </c>
-      <c r="F36">
+      <c r="G36">
         <v>25</v>
       </c>
-      <c r="G36" t="s">
-        <v>3</v>
-      </c>
-      <c r="H36">
-        <v>1</v>
+      <c r="H36" t="s">
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J36">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1719036</v>
       </c>
@@ -2183,23 +2688,26 @@
       <c r="D37" t="s">
         <v>70</v>
       </c>
-      <c r="E37" s="1">
+      <c r="E37" t="s">
+        <v>274</v>
+      </c>
+      <c r="F37" s="1">
         <v>34689</v>
       </c>
-      <c r="F37">
+      <c r="G37">
         <v>24</v>
       </c>
-      <c r="G37" t="s">
-        <v>4</v>
-      </c>
-      <c r="H37">
-        <v>1</v>
+      <c r="H37" t="s">
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>1719037</v>
       </c>
@@ -2212,23 +2720,26 @@
       <c r="D38" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="1">
+      <c r="E38" t="s">
+        <v>275</v>
+      </c>
+      <c r="F38" s="1">
         <v>34325</v>
       </c>
-      <c r="F38">
+      <c r="G38">
         <v>25</v>
       </c>
-      <c r="G38" t="s">
-        <v>3</v>
-      </c>
-      <c r="H38">
-        <v>1</v>
+      <c r="H38" t="s">
+        <v>3</v>
       </c>
       <c r="I38">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>1719038</v>
       </c>
@@ -2241,23 +2752,26 @@
       <c r="D39" t="s">
         <v>55</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E39" t="s">
+        <v>276</v>
+      </c>
+      <c r="F39" s="1">
         <v>34325</v>
       </c>
-      <c r="F39">
+      <c r="G39">
         <v>25</v>
       </c>
-      <c r="G39" t="s">
-        <v>4</v>
-      </c>
-      <c r="H39">
-        <v>1</v>
+      <c r="H39" t="s">
+        <v>4</v>
       </c>
       <c r="I39">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J39">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1719039</v>
       </c>
@@ -2270,23 +2784,26 @@
       <c r="D40" t="s">
         <v>55</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E40" t="s">
+        <v>277</v>
+      </c>
+      <c r="F40" s="1">
         <v>34618</v>
       </c>
-      <c r="F40">
+      <c r="G40">
         <v>24</v>
       </c>
-      <c r="G40" t="s">
-        <v>4</v>
-      </c>
-      <c r="H40">
-        <v>1</v>
+      <c r="H40" t="s">
+        <v>4</v>
       </c>
       <c r="I40">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1719040</v>
       </c>
@@ -2299,23 +2816,26 @@
       <c r="D41" t="s">
         <v>55</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E41" t="s">
+        <v>278</v>
+      </c>
+      <c r="F41" s="1">
         <v>34671</v>
       </c>
-      <c r="F41">
+      <c r="G41">
         <v>24</v>
       </c>
-      <c r="G41" t="s">
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <v>1</v>
+      <c r="H41" t="s">
+        <v>4</v>
       </c>
       <c r="I41">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>1719041</v>
       </c>
@@ -2328,23 +2848,26 @@
       <c r="D42" t="s">
         <v>55</v>
       </c>
-      <c r="E42" s="1">
+      <c r="E42" t="s">
+        <v>279</v>
+      </c>
+      <c r="F42" s="1">
         <v>34750</v>
       </c>
-      <c r="F42">
+      <c r="G42">
         <v>23</v>
       </c>
-      <c r="G42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
+      <c r="H42" t="s">
+        <v>3</v>
       </c>
       <c r="I42">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1719042</v>
       </c>
@@ -2357,23 +2880,26 @@
       <c r="D43" t="s">
         <v>96</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E43" t="s">
+        <v>280</v>
+      </c>
+      <c r="F43" s="1">
         <v>34598</v>
       </c>
-      <c r="F43">
+      <c r="G43">
         <v>24</v>
       </c>
-      <c r="G43" t="s">
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <v>1</v>
+      <c r="H43" t="s">
+        <v>4</v>
       </c>
       <c r="I43">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1719043</v>
       </c>
@@ -2386,23 +2912,26 @@
       <c r="D44" t="s">
         <v>96</v>
       </c>
-      <c r="E44" s="1">
+      <c r="E44" t="s">
+        <v>281</v>
+      </c>
+      <c r="F44" s="1">
         <v>34864</v>
       </c>
-      <c r="F44">
+      <c r="G44">
         <v>23</v>
       </c>
-      <c r="G44" t="s">
-        <v>3</v>
-      </c>
-      <c r="H44">
-        <v>1</v>
+      <c r="H44" t="s">
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1719044</v>
       </c>
@@ -2415,23 +2944,26 @@
       <c r="D45" t="s">
         <v>96</v>
       </c>
-      <c r="E45" s="1">
+      <c r="E45" t="s">
+        <v>282</v>
+      </c>
+      <c r="F45" s="1">
         <v>35051</v>
       </c>
-      <c r="F45">
+      <c r="G45">
         <v>23</v>
       </c>
-      <c r="G45" t="s">
-        <v>3</v>
-      </c>
-      <c r="H45">
-        <v>1</v>
+      <c r="H45" t="s">
+        <v>3</v>
       </c>
       <c r="I45">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1719045</v>
       </c>
@@ -2444,23 +2976,26 @@
       <c r="D46" t="s">
         <v>96</v>
       </c>
-      <c r="E46" s="1">
+      <c r="E46" t="s">
+        <v>283</v>
+      </c>
+      <c r="F46" s="1">
         <v>34954</v>
       </c>
-      <c r="F46">
+      <c r="G46">
         <v>23</v>
       </c>
-      <c r="G46" t="s">
-        <v>3</v>
-      </c>
-      <c r="H46">
-        <v>2</v>
+      <c r="H46" t="s">
+        <v>3</v>
       </c>
       <c r="I46">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J46">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>1719046</v>
       </c>
@@ -2473,23 +3008,26 @@
       <c r="D47" t="s">
         <v>96</v>
       </c>
-      <c r="E47" s="1">
+      <c r="E47" t="s">
+        <v>284</v>
+      </c>
+      <c r="F47" s="1">
         <v>35175</v>
       </c>
-      <c r="F47">
+      <c r="G47">
         <v>22</v>
       </c>
-      <c r="G47" t="s">
-        <v>4</v>
-      </c>
-      <c r="H47">
-        <v>2</v>
+      <c r="H47" t="s">
+        <v>4</v>
       </c>
       <c r="I47">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>1719047</v>
       </c>
@@ -2502,23 +3040,26 @@
       <c r="D48" t="s">
         <v>96</v>
       </c>
-      <c r="E48" s="1">
+      <c r="E48" t="s">
+        <v>285</v>
+      </c>
+      <c r="F48" s="1">
         <v>35044</v>
       </c>
-      <c r="F48">
+      <c r="G48">
         <v>23</v>
       </c>
-      <c r="G48" t="s">
-        <v>3</v>
-      </c>
-      <c r="H48">
-        <v>2</v>
+      <c r="H48" t="s">
+        <v>3</v>
       </c>
       <c r="I48">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>1719048</v>
       </c>
@@ -2531,23 +3072,26 @@
       <c r="D49" t="s">
         <v>105</v>
       </c>
-      <c r="E49" s="1">
+      <c r="E49" t="s">
+        <v>286</v>
+      </c>
+      <c r="F49" s="1">
         <v>35157</v>
       </c>
-      <c r="F49">
+      <c r="G49">
         <v>22</v>
       </c>
-      <c r="G49" t="s">
-        <v>4</v>
-      </c>
-      <c r="H49">
-        <v>2</v>
+      <c r="H49" t="s">
+        <v>4</v>
       </c>
       <c r="I49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>1719049</v>
       </c>
@@ -2560,23 +3104,26 @@
       <c r="D50" t="s">
         <v>105</v>
       </c>
-      <c r="E50" s="1">
+      <c r="E50" t="s">
+        <v>287</v>
+      </c>
+      <c r="F50" s="1">
         <v>34686</v>
       </c>
-      <c r="F50">
+      <c r="G50">
         <v>24</v>
       </c>
-      <c r="G50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H50">
-        <v>2</v>
+      <c r="H50" t="s">
+        <v>3</v>
       </c>
       <c r="I50">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>1719050</v>
       </c>
@@ -2589,23 +3136,26 @@
       <c r="D51" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="1">
+      <c r="E51" t="s">
+        <v>288</v>
+      </c>
+      <c r="F51" s="1">
         <v>34687</v>
       </c>
-      <c r="F51">
+      <c r="G51">
         <v>24</v>
       </c>
-      <c r="G51" t="s">
-        <v>4</v>
-      </c>
-      <c r="H51">
-        <v>2</v>
+      <c r="H51" t="s">
+        <v>4</v>
       </c>
       <c r="I51">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>1719051</v>
       </c>
@@ -2618,23 +3168,26 @@
       <c r="D52" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="1">
+      <c r="E52" t="s">
+        <v>289</v>
+      </c>
+      <c r="F52" s="1">
         <v>34323</v>
       </c>
-      <c r="F52">
+      <c r="G52">
         <v>25</v>
       </c>
-      <c r="G52" t="s">
-        <v>3</v>
-      </c>
-      <c r="H52">
-        <v>2</v>
+      <c r="H52" t="s">
+        <v>3</v>
       </c>
       <c r="I52">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J52">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>1719052</v>
       </c>
@@ -2647,23 +3200,26 @@
       <c r="D53" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="1">
+      <c r="E53" t="s">
+        <v>290</v>
+      </c>
+      <c r="F53" s="1">
         <v>34689</v>
       </c>
-      <c r="F53">
+      <c r="G53">
         <v>24</v>
       </c>
-      <c r="G53" t="s">
-        <v>4</v>
-      </c>
-      <c r="H53">
-        <v>2</v>
+      <c r="H53" t="s">
+        <v>4</v>
       </c>
       <c r="I53">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J53">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1719053</v>
       </c>
@@ -2676,23 +3232,26 @@
       <c r="D54" t="s">
         <v>40</v>
       </c>
-      <c r="E54" s="1">
+      <c r="E54" t="s">
+        <v>291</v>
+      </c>
+      <c r="F54" s="1">
         <v>34325</v>
       </c>
-      <c r="F54">
+      <c r="G54">
         <v>25</v>
       </c>
-      <c r="G54" t="s">
-        <v>3</v>
-      </c>
-      <c r="H54">
-        <v>2</v>
+      <c r="H54" t="s">
+        <v>3</v>
       </c>
       <c r="I54">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J54">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>1719054</v>
       </c>
@@ -2705,23 +3264,26 @@
       <c r="D55" t="s">
         <v>113</v>
       </c>
-      <c r="E55" s="1">
+      <c r="E55" t="s">
+        <v>292</v>
+      </c>
+      <c r="F55" s="1">
         <v>34325</v>
       </c>
-      <c r="F55">
+      <c r="G55">
         <v>25</v>
       </c>
-      <c r="G55" t="s">
-        <v>4</v>
-      </c>
-      <c r="H55">
-        <v>2</v>
+      <c r="H55" t="s">
+        <v>4</v>
       </c>
       <c r="I55">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1719055</v>
       </c>
@@ -2734,23 +3296,26 @@
       <c r="D56" t="s">
         <v>113</v>
       </c>
-      <c r="E56" s="1">
+      <c r="E56" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="1">
         <v>34618</v>
       </c>
-      <c r="F56">
+      <c r="G56">
         <v>24</v>
       </c>
-      <c r="G56" t="s">
-        <v>4</v>
-      </c>
-      <c r="H56">
-        <v>2</v>
+      <c r="H56" t="s">
+        <v>4</v>
       </c>
       <c r="I56">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>1719056</v>
       </c>
@@ -2763,23 +3328,26 @@
       <c r="D57" t="s">
         <v>113</v>
       </c>
-      <c r="E57" s="1">
+      <c r="E57" t="s">
+        <v>294</v>
+      </c>
+      <c r="F57" s="1">
         <v>34671</v>
       </c>
-      <c r="F57">
+      <c r="G57">
         <v>24</v>
       </c>
-      <c r="G57" t="s">
-        <v>4</v>
-      </c>
-      <c r="H57">
-        <v>2</v>
+      <c r="H57" t="s">
+        <v>4</v>
       </c>
       <c r="I57">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1719057</v>
       </c>
@@ -2792,23 +3360,26 @@
       <c r="D58" t="s">
         <v>113</v>
       </c>
-      <c r="E58" s="1">
+      <c r="E58" t="s">
+        <v>295</v>
+      </c>
+      <c r="F58" s="1">
         <v>34750</v>
       </c>
-      <c r="F58">
+      <c r="G58">
         <v>23</v>
       </c>
-      <c r="G58" t="s">
-        <v>3</v>
-      </c>
-      <c r="H58">
-        <v>2</v>
+      <c r="H58" t="s">
+        <v>3</v>
       </c>
       <c r="I58">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>1719058</v>
       </c>
@@ -2821,23 +3392,26 @@
       <c r="D59" t="s">
         <v>113</v>
       </c>
-      <c r="E59" s="1">
+      <c r="E59" t="s">
+        <v>296</v>
+      </c>
+      <c r="F59" s="1">
         <v>34598</v>
       </c>
-      <c r="F59">
+      <c r="G59">
         <v>24</v>
       </c>
-      <c r="G59" t="s">
-        <v>4</v>
-      </c>
-      <c r="H59">
-        <v>2</v>
+      <c r="H59" t="s">
+        <v>4</v>
       </c>
       <c r="I59">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1719059</v>
       </c>
@@ -2850,23 +3424,26 @@
       <c r="D60" t="s">
         <v>124</v>
       </c>
-      <c r="E60" s="1">
+      <c r="E60" t="s">
+        <v>297</v>
+      </c>
+      <c r="F60" s="1">
         <v>34864</v>
       </c>
-      <c r="F60">
+      <c r="G60">
         <v>23</v>
       </c>
-      <c r="G60" t="s">
-        <v>3</v>
-      </c>
-      <c r="H60">
-        <v>2</v>
+      <c r="H60" t="s">
+        <v>3</v>
       </c>
       <c r="I60">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1719060</v>
       </c>
@@ -2879,23 +3456,26 @@
       <c r="D61" t="s">
         <v>124</v>
       </c>
-      <c r="E61" s="1">
+      <c r="E61" t="s">
+        <v>298</v>
+      </c>
+      <c r="F61" s="1">
         <v>35051</v>
       </c>
-      <c r="F61">
+      <c r="G61">
         <v>23</v>
       </c>
-      <c r="G61" t="s">
-        <v>3</v>
-      </c>
-      <c r="H61">
-        <v>2</v>
+      <c r="H61" t="s">
+        <v>3</v>
       </c>
       <c r="I61">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1719061</v>
       </c>
@@ -2908,23 +3488,26 @@
       <c r="D62" t="s">
         <v>124</v>
       </c>
-      <c r="E62" s="1">
+      <c r="E62" t="s">
+        <v>299</v>
+      </c>
+      <c r="F62" s="1">
         <v>34954</v>
       </c>
-      <c r="F62">
+      <c r="G62">
         <v>23</v>
       </c>
-      <c r="G62" t="s">
-        <v>3</v>
-      </c>
-      <c r="H62">
-        <v>2</v>
+      <c r="H62" t="s">
+        <v>3</v>
       </c>
       <c r="I62">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1719062</v>
       </c>
@@ -2937,23 +3520,26 @@
       <c r="D63" t="s">
         <v>130</v>
       </c>
-      <c r="E63" s="1">
+      <c r="E63" t="s">
+        <v>300</v>
+      </c>
+      <c r="F63" s="1">
         <v>35175</v>
       </c>
-      <c r="F63">
+      <c r="G63">
         <v>22</v>
       </c>
-      <c r="G63" t="s">
-        <v>4</v>
-      </c>
-      <c r="H63">
-        <v>2</v>
+      <c r="H63" t="s">
+        <v>4</v>
       </c>
       <c r="I63">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J63">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>1719063</v>
       </c>
@@ -2966,23 +3552,26 @@
       <c r="D64" t="s">
         <v>130</v>
       </c>
-      <c r="E64" s="1">
+      <c r="E64" t="s">
+        <v>301</v>
+      </c>
+      <c r="F64" s="1">
         <v>35044</v>
       </c>
-      <c r="F64">
+      <c r="G64">
         <v>23</v>
       </c>
-      <c r="G64" t="s">
-        <v>3</v>
-      </c>
-      <c r="H64">
-        <v>2</v>
+      <c r="H64" t="s">
+        <v>3</v>
       </c>
       <c r="I64">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1719064</v>
       </c>
@@ -2995,23 +3584,26 @@
       <c r="D65" t="s">
         <v>135</v>
       </c>
-      <c r="E65" s="1">
+      <c r="E65" t="s">
+        <v>302</v>
+      </c>
+      <c r="F65" s="1">
         <v>35157</v>
       </c>
-      <c r="F65">
+      <c r="G65">
         <v>22</v>
       </c>
-      <c r="G65" t="s">
-        <v>4</v>
-      </c>
-      <c r="H65">
-        <v>2</v>
+      <c r="H65" t="s">
+        <v>4</v>
       </c>
       <c r="I65">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>1719065</v>
       </c>
@@ -3024,23 +3616,26 @@
       <c r="D66" t="s">
         <v>135</v>
       </c>
-      <c r="E66" s="1">
+      <c r="E66" t="s">
+        <v>303</v>
+      </c>
+      <c r="F66" s="1">
         <v>34686</v>
       </c>
-      <c r="F66">
+      <c r="G66">
         <v>24</v>
       </c>
-      <c r="G66" t="s">
-        <v>3</v>
-      </c>
-      <c r="H66">
-        <v>2</v>
+      <c r="H66" t="s">
+        <v>3</v>
       </c>
       <c r="I66">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1719066</v>
       </c>
@@ -3053,23 +3648,26 @@
       <c r="D67" t="s">
         <v>138</v>
       </c>
-      <c r="E67" s="1">
+      <c r="E67" t="s">
+        <v>304</v>
+      </c>
+      <c r="F67" s="1">
         <v>34687</v>
       </c>
-      <c r="F67">
+      <c r="G67">
         <v>24</v>
       </c>
-      <c r="G67" t="s">
-        <v>4</v>
-      </c>
-      <c r="H67">
-        <v>2</v>
+      <c r="H67" t="s">
+        <v>4</v>
       </c>
       <c r="I67">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J67">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>1719067</v>
       </c>
@@ -3082,23 +3680,26 @@
       <c r="D68" t="s">
         <v>138</v>
       </c>
-      <c r="E68" s="1">
+      <c r="E68" t="s">
+        <v>305</v>
+      </c>
+      <c r="F68" s="1">
         <v>34323</v>
       </c>
-      <c r="F68">
+      <c r="G68">
         <v>25</v>
       </c>
-      <c r="G68" t="s">
-        <v>3</v>
-      </c>
-      <c r="H68">
-        <v>2</v>
+      <c r="H68" t="s">
+        <v>3</v>
       </c>
       <c r="I68">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J68">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>1719068</v>
       </c>
@@ -3111,23 +3712,26 @@
       <c r="D69" t="s">
         <v>138</v>
       </c>
-      <c r="E69" s="1">
+      <c r="E69" t="s">
+        <v>306</v>
+      </c>
+      <c r="F69" s="1">
         <v>34689</v>
       </c>
-      <c r="F69">
+      <c r="G69">
         <v>24</v>
       </c>
-      <c r="G69" t="s">
-        <v>4</v>
-      </c>
-      <c r="H69">
-        <v>2</v>
+      <c r="H69" t="s">
+        <v>4</v>
       </c>
       <c r="I69">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J69">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>1719069</v>
       </c>
@@ -3140,23 +3744,26 @@
       <c r="D70" t="s">
         <v>138</v>
       </c>
-      <c r="E70" s="1">
+      <c r="E70" t="s">
+        <v>307</v>
+      </c>
+      <c r="F70" s="1">
         <v>34325</v>
       </c>
-      <c r="F70">
+      <c r="G70">
         <v>25</v>
       </c>
-      <c r="G70" t="s">
-        <v>3</v>
-      </c>
-      <c r="H70">
-        <v>2</v>
+      <c r="H70" t="s">
+        <v>3</v>
       </c>
       <c r="I70">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J70">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>1719070</v>
       </c>
@@ -3169,23 +3776,26 @@
       <c r="D71" t="s">
         <v>138</v>
       </c>
-      <c r="E71" s="1">
+      <c r="E71" t="s">
+        <v>308</v>
+      </c>
+      <c r="F71" s="1">
         <v>34325</v>
       </c>
-      <c r="F71">
+      <c r="G71">
         <v>25</v>
       </c>
-      <c r="G71" t="s">
-        <v>4</v>
-      </c>
-      <c r="H71">
-        <v>2</v>
+      <c r="H71" t="s">
+        <v>4</v>
       </c>
       <c r="I71">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>1719071</v>
       </c>
@@ -3198,23 +3808,26 @@
       <c r="D72" t="s">
         <v>147</v>
       </c>
-      <c r="E72" s="1">
+      <c r="E72" t="s">
+        <v>309</v>
+      </c>
+      <c r="F72" s="1">
         <v>34618</v>
       </c>
-      <c r="F72">
+      <c r="G72">
         <v>24</v>
       </c>
-      <c r="G72" t="s">
-        <v>4</v>
-      </c>
-      <c r="H72">
-        <v>2</v>
+      <c r="H72" t="s">
+        <v>4</v>
       </c>
       <c r="I72">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>1719072</v>
       </c>
@@ -3227,23 +3840,26 @@
       <c r="D73" t="s">
         <v>147</v>
       </c>
-      <c r="E73" s="1">
+      <c r="E73" t="s">
+        <v>310</v>
+      </c>
+      <c r="F73" s="1">
         <v>34671</v>
       </c>
-      <c r="F73">
+      <c r="G73">
         <v>24</v>
       </c>
-      <c r="G73" t="s">
-        <v>4</v>
-      </c>
-      <c r="H73">
-        <v>2</v>
+      <c r="H73" t="s">
+        <v>4</v>
       </c>
       <c r="I73">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>1719073</v>
       </c>
@@ -3256,23 +3872,26 @@
       <c r="D74" t="s">
         <v>151</v>
       </c>
-      <c r="E74" s="1">
+      <c r="E74" t="s">
+        <v>311</v>
+      </c>
+      <c r="F74" s="1">
         <v>34750</v>
       </c>
-      <c r="F74">
+      <c r="G74">
         <v>23</v>
       </c>
-      <c r="G74" t="s">
-        <v>3</v>
-      </c>
-      <c r="H74">
-        <v>2</v>
+      <c r="H74" t="s">
+        <v>3</v>
       </c>
       <c r="I74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>1719074</v>
       </c>
@@ -3285,23 +3904,26 @@
       <c r="D75" t="s">
         <v>151</v>
       </c>
-      <c r="E75" s="1">
+      <c r="E75" t="s">
+        <v>312</v>
+      </c>
+      <c r="F75" s="1">
         <v>34598</v>
       </c>
-      <c r="F75">
+      <c r="G75">
         <v>24</v>
       </c>
-      <c r="G75" t="s">
-        <v>4</v>
-      </c>
-      <c r="H75">
-        <v>2</v>
+      <c r="H75" t="s">
+        <v>4</v>
       </c>
       <c r="I75">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J75">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>1719075</v>
       </c>
@@ -3314,23 +3936,26 @@
       <c r="D76" t="s">
         <v>154</v>
       </c>
-      <c r="E76" s="1">
+      <c r="E76" t="s">
+        <v>313</v>
+      </c>
+      <c r="F76" s="1">
         <v>34864</v>
       </c>
-      <c r="F76">
+      <c r="G76">
         <v>23</v>
       </c>
-      <c r="G76" t="s">
-        <v>3</v>
-      </c>
-      <c r="H76">
-        <v>2</v>
+      <c r="H76" t="s">
+        <v>3</v>
       </c>
       <c r="I76">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>1719076</v>
       </c>
@@ -3343,23 +3968,26 @@
       <c r="D77" t="s">
         <v>156</v>
       </c>
-      <c r="E77" s="1">
+      <c r="E77" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="1">
         <v>35051</v>
       </c>
-      <c r="F77">
+      <c r="G77">
         <v>23</v>
       </c>
-      <c r="G77" t="s">
-        <v>3</v>
-      </c>
-      <c r="H77">
-        <v>2</v>
+      <c r="H77" t="s">
+        <v>3</v>
       </c>
       <c r="I77">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J77">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>1719077</v>
       </c>
@@ -3372,23 +4000,26 @@
       <c r="D78" t="s">
         <v>117</v>
       </c>
-      <c r="E78" s="1">
+      <c r="E78" t="s">
+        <v>315</v>
+      </c>
+      <c r="F78" s="1">
         <v>34954</v>
       </c>
-      <c r="F78">
+      <c r="G78">
         <v>23</v>
       </c>
-      <c r="G78" t="s">
-        <v>3</v>
-      </c>
-      <c r="H78">
-        <v>2</v>
+      <c r="H78" t="s">
+        <v>3</v>
       </c>
       <c r="I78">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1719078</v>
       </c>
@@ -3401,23 +4032,26 @@
       <c r="D79" t="s">
         <v>159</v>
       </c>
-      <c r="E79" s="1">
+      <c r="E79" t="s">
+        <v>316</v>
+      </c>
+      <c r="F79" s="1">
         <v>35175</v>
       </c>
-      <c r="F79">
+      <c r="G79">
         <v>22</v>
       </c>
-      <c r="G79" t="s">
-        <v>4</v>
-      </c>
-      <c r="H79">
-        <v>2</v>
+      <c r="H79" t="s">
+        <v>4</v>
       </c>
       <c r="I79">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>1719079</v>
       </c>
@@ -3430,23 +4064,26 @@
       <c r="D80" t="s">
         <v>40</v>
       </c>
-      <c r="E80" s="1">
+      <c r="E80" t="s">
+        <v>317</v>
+      </c>
+      <c r="F80" s="1">
         <v>35044</v>
       </c>
-      <c r="F80">
+      <c r="G80">
         <v>23</v>
       </c>
-      <c r="G80" t="s">
-        <v>3</v>
-      </c>
-      <c r="H80">
-        <v>2</v>
+      <c r="H80" t="s">
+        <v>3</v>
       </c>
       <c r="I80">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J80">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1719080</v>
       </c>
@@ -3459,23 +4096,26 @@
       <c r="D81" t="s">
         <v>38</v>
       </c>
-      <c r="E81" s="1">
+      <c r="E81" t="s">
+        <v>318</v>
+      </c>
+      <c r="F81" s="1">
         <v>35157</v>
       </c>
-      <c r="F81">
+      <c r="G81">
         <v>22</v>
       </c>
-      <c r="G81" t="s">
-        <v>4</v>
-      </c>
-      <c r="H81">
-        <v>2</v>
+      <c r="H81" t="s">
+        <v>4</v>
       </c>
       <c r="I81">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J81">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>1719081</v>
       </c>
@@ -3488,23 +4128,26 @@
       <c r="D82" t="s">
         <v>88</v>
       </c>
-      <c r="E82" s="1">
+      <c r="E82" t="s">
+        <v>319</v>
+      </c>
+      <c r="F82" s="1">
         <v>34686</v>
       </c>
-      <c r="F82">
+      <c r="G82">
         <v>24</v>
       </c>
-      <c r="G82" t="s">
-        <v>3</v>
-      </c>
-      <c r="H82">
-        <v>2</v>
+      <c r="H82" t="s">
+        <v>3</v>
       </c>
       <c r="I82">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1719082</v>
       </c>
@@ -3517,23 +4160,26 @@
       <c r="D83" t="s">
         <v>88</v>
       </c>
-      <c r="E83" s="1">
+      <c r="E83" t="s">
+        <v>320</v>
+      </c>
+      <c r="F83" s="1">
         <v>34687</v>
       </c>
-      <c r="F83">
+      <c r="G83">
         <v>24</v>
       </c>
-      <c r="G83" t="s">
-        <v>4</v>
-      </c>
-      <c r="H83">
-        <v>2</v>
+      <c r="H83" t="s">
+        <v>4</v>
       </c>
       <c r="I83">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J83">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>1719083</v>
       </c>
@@ -3546,23 +4192,26 @@
       <c r="D84" t="s">
         <v>88</v>
       </c>
-      <c r="E84" s="1">
+      <c r="E84" t="s">
+        <v>321</v>
+      </c>
+      <c r="F84" s="1">
         <v>34323</v>
       </c>
-      <c r="F84">
+      <c r="G84">
         <v>25</v>
       </c>
-      <c r="G84" t="s">
-        <v>3</v>
-      </c>
-      <c r="H84">
-        <v>2</v>
+      <c r="H84" t="s">
+        <v>3</v>
       </c>
       <c r="I84">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J84">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1719084</v>
       </c>
@@ -3575,23 +4224,26 @@
       <c r="D85" t="s">
         <v>88</v>
       </c>
-      <c r="E85" s="1">
+      <c r="E85" t="s">
+        <v>322</v>
+      </c>
+      <c r="F85" s="1">
         <v>34689</v>
       </c>
-      <c r="F85">
+      <c r="G85">
         <v>24</v>
       </c>
-      <c r="G85" t="s">
-        <v>4</v>
-      </c>
-      <c r="H85">
-        <v>2</v>
+      <c r="H85" t="s">
+        <v>4</v>
       </c>
       <c r="I85">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J85">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>1719085</v>
       </c>
@@ -3604,23 +4256,26 @@
       <c r="D86" t="s">
         <v>88</v>
       </c>
-      <c r="E86" s="1">
+      <c r="E86" t="s">
+        <v>323</v>
+      </c>
+      <c r="F86" s="1">
         <v>34325</v>
       </c>
-      <c r="F86">
+      <c r="G86">
         <v>25</v>
       </c>
-      <c r="G86" t="s">
-        <v>3</v>
-      </c>
-      <c r="H86">
-        <v>2</v>
+      <c r="H86" t="s">
+        <v>3</v>
       </c>
       <c r="I86">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J86">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>1719086</v>
       </c>
@@ -3633,23 +4288,26 @@
       <c r="D87" t="s">
         <v>88</v>
       </c>
-      <c r="E87" s="1">
+      <c r="E87" t="s">
+        <v>324</v>
+      </c>
+      <c r="F87" s="1">
         <v>34325</v>
       </c>
-      <c r="F87">
+      <c r="G87">
         <v>25</v>
       </c>
-      <c r="G87" t="s">
-        <v>4</v>
-      </c>
-      <c r="H87">
-        <v>2</v>
+      <c r="H87" t="s">
+        <v>4</v>
       </c>
       <c r="I87">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J87">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1719087</v>
       </c>
@@ -3662,23 +4320,26 @@
       <c r="D88" t="s">
         <v>88</v>
       </c>
-      <c r="E88" s="1">
+      <c r="E88" t="s">
+        <v>325</v>
+      </c>
+      <c r="F88" s="1">
         <v>34618</v>
       </c>
-      <c r="F88">
+      <c r="G88">
         <v>24</v>
       </c>
-      <c r="G88" t="s">
-        <v>4</v>
-      </c>
-      <c r="H88">
-        <v>2</v>
+      <c r="H88" t="s">
+        <v>4</v>
       </c>
       <c r="I88">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>1719088</v>
       </c>
@@ -3691,23 +4352,26 @@
       <c r="D89" t="s">
         <v>88</v>
       </c>
-      <c r="E89" s="1">
+      <c r="E89" t="s">
+        <v>326</v>
+      </c>
+      <c r="F89" s="1">
         <v>34671</v>
       </c>
-      <c r="F89">
+      <c r="G89">
         <v>24</v>
       </c>
-      <c r="G89" t="s">
-        <v>4</v>
-      </c>
-      <c r="H89">
-        <v>2</v>
+      <c r="H89" t="s">
+        <v>4</v>
       </c>
       <c r="I89">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>1719089</v>
       </c>
@@ -3720,23 +4384,26 @@
       <c r="D90" t="s">
         <v>88</v>
       </c>
-      <c r="E90" s="1">
+      <c r="E90" t="s">
+        <v>327</v>
+      </c>
+      <c r="F90" s="1">
         <v>34750</v>
       </c>
-      <c r="F90">
+      <c r="G90">
         <v>23</v>
       </c>
-      <c r="G90" t="s">
-        <v>3</v>
-      </c>
-      <c r="H90">
+      <c r="H90" t="s">
         <v>3</v>
       </c>
       <c r="I90">
+        <v>3</v>
+      </c>
+      <c r="J90">
         <v>5</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1719090</v>
       </c>
@@ -3749,23 +4416,26 @@
       <c r="D91" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="1">
+      <c r="E91" t="s">
+        <v>328</v>
+      </c>
+      <c r="F91" s="1">
         <v>34598</v>
       </c>
-      <c r="F91">
+      <c r="G91">
         <v>24</v>
       </c>
-      <c r="G91" t="s">
-        <v>4</v>
-      </c>
-      <c r="H91">
-        <v>3</v>
+      <c r="H91" t="s">
+        <v>4</v>
       </c>
       <c r="I91">
+        <v>3</v>
+      </c>
+      <c r="J91">
         <v>5</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>1719091</v>
       </c>
@@ -3778,23 +4448,26 @@
       <c r="D92" t="s">
         <v>181</v>
       </c>
-      <c r="E92" s="1">
+      <c r="E92" t="s">
+        <v>329</v>
+      </c>
+      <c r="F92" s="1">
         <v>34864</v>
       </c>
-      <c r="F92">
+      <c r="G92">
         <v>23</v>
       </c>
-      <c r="G92" t="s">
-        <v>3</v>
-      </c>
-      <c r="H92">
+      <c r="H92" t="s">
         <v>3</v>
       </c>
       <c r="I92">
+        <v>3</v>
+      </c>
+      <c r="J92">
         <v>5</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>1719092</v>
       </c>
@@ -3807,23 +4480,26 @@
       <c r="D93" t="s">
         <v>183</v>
       </c>
-      <c r="E93" s="1">
+      <c r="E93" t="s">
+        <v>330</v>
+      </c>
+      <c r="F93" s="1">
         <v>35051</v>
       </c>
-      <c r="F93">
+      <c r="G93">
         <v>23</v>
       </c>
-      <c r="G93" t="s">
-        <v>3</v>
-      </c>
-      <c r="H93">
+      <c r="H93" t="s">
         <v>3</v>
       </c>
       <c r="I93">
+        <v>3</v>
+      </c>
+      <c r="J93">
         <v>5</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1719093</v>
       </c>
@@ -3836,23 +4512,26 @@
       <c r="D94" t="s">
         <v>185</v>
       </c>
-      <c r="E94" s="1">
+      <c r="E94" t="s">
+        <v>331</v>
+      </c>
+      <c r="F94" s="1">
         <v>34954</v>
       </c>
-      <c r="F94">
+      <c r="G94">
         <v>23</v>
       </c>
-      <c r="G94" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94">
+      <c r="H94" t="s">
         <v>3</v>
       </c>
       <c r="I94">
+        <v>3</v>
+      </c>
+      <c r="J94">
         <v>5</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1719094</v>
       </c>
@@ -3865,23 +4544,26 @@
       <c r="D95" t="s">
         <v>55</v>
       </c>
-      <c r="E95" s="1">
+      <c r="E95" t="s">
+        <v>332</v>
+      </c>
+      <c r="F95" s="1">
         <v>35175</v>
       </c>
-      <c r="F95">
+      <c r="G95">
         <v>22</v>
       </c>
-      <c r="G95" t="s">
-        <v>4</v>
-      </c>
-      <c r="H95">
-        <v>3</v>
+      <c r="H95" t="s">
+        <v>4</v>
       </c>
       <c r="I95">
+        <v>3</v>
+      </c>
+      <c r="J95">
         <v>5</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>1719095</v>
       </c>
@@ -3894,23 +4576,26 @@
       <c r="D96" t="s">
         <v>55</v>
       </c>
-      <c r="E96" s="1">
+      <c r="E96" t="s">
+        <v>333</v>
+      </c>
+      <c r="F96" s="1">
         <v>35044</v>
       </c>
-      <c r="F96">
+      <c r="G96">
         <v>23</v>
       </c>
-      <c r="G96" t="s">
-        <v>3</v>
-      </c>
-      <c r="H96">
+      <c r="H96" t="s">
         <v>3</v>
       </c>
       <c r="I96">
+        <v>3</v>
+      </c>
+      <c r="J96">
         <v>5</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>1719096</v>
       </c>
@@ -3923,23 +4608,26 @@
       <c r="D97" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="1">
+      <c r="E97" t="s">
+        <v>334</v>
+      </c>
+      <c r="F97" s="1">
         <v>35157</v>
       </c>
-      <c r="F97">
+      <c r="G97">
         <v>22</v>
       </c>
-      <c r="G97" t="s">
-        <v>4</v>
-      </c>
-      <c r="H97">
-        <v>3</v>
+      <c r="H97" t="s">
+        <v>4</v>
       </c>
       <c r="I97">
+        <v>3</v>
+      </c>
+      <c r="J97">
         <v>5</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>1719097</v>
       </c>
@@ -3952,23 +4640,26 @@
       <c r="D98" t="s">
         <v>55</v>
       </c>
-      <c r="E98" s="1">
+      <c r="E98" t="s">
+        <v>335</v>
+      </c>
+      <c r="F98" s="1">
         <v>34686</v>
       </c>
-      <c r="F98">
+      <c r="G98">
         <v>24</v>
       </c>
-      <c r="G98" t="s">
-        <v>3</v>
-      </c>
-      <c r="H98">
+      <c r="H98" t="s">
         <v>3</v>
       </c>
       <c r="I98">
+        <v>3</v>
+      </c>
+      <c r="J98">
         <v>5</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>1719098</v>
       </c>
@@ -3981,23 +4672,26 @@
       <c r="D99" t="s">
         <v>55</v>
       </c>
-      <c r="E99" s="1">
+      <c r="E99" t="s">
+        <v>336</v>
+      </c>
+      <c r="F99" s="1">
         <v>34687</v>
       </c>
-      <c r="F99">
+      <c r="G99">
         <v>24</v>
       </c>
-      <c r="G99" t="s">
-        <v>4</v>
-      </c>
-      <c r="H99">
-        <v>3</v>
+      <c r="H99" t="s">
+        <v>4</v>
       </c>
       <c r="I99">
+        <v>3</v>
+      </c>
+      <c r="J99">
         <v>5</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>1719099</v>
       </c>
@@ -4010,23 +4704,26 @@
       <c r="D100" t="s">
         <v>55</v>
       </c>
-      <c r="E100" s="1">
+      <c r="E100" t="s">
+        <v>337</v>
+      </c>
+      <c r="F100" s="1">
         <v>34323</v>
       </c>
-      <c r="F100">
+      <c r="G100">
         <v>25</v>
       </c>
-      <c r="G100" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100">
+      <c r="H100" t="s">
         <v>3</v>
       </c>
       <c r="I100">
+        <v>3</v>
+      </c>
+      <c r="J100">
         <v>5</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1719100</v>
       </c>
@@ -4039,23 +4736,26 @@
       <c r="D101" t="s">
         <v>194</v>
       </c>
-      <c r="E101" s="1">
+      <c r="E101" t="s">
+        <v>338</v>
+      </c>
+      <c r="F101" s="1">
         <v>34689</v>
       </c>
-      <c r="F101">
+      <c r="G101">
         <v>24</v>
       </c>
-      <c r="G101" t="s">
-        <v>4</v>
-      </c>
-      <c r="H101">
-        <v>3</v>
+      <c r="H101" t="s">
+        <v>4</v>
       </c>
       <c r="I101">
+        <v>3</v>
+      </c>
+      <c r="J101">
         <v>5</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1719101</v>
       </c>
@@ -4068,23 +4768,26 @@
       <c r="D102" t="s">
         <v>197</v>
       </c>
-      <c r="E102" s="1">
+      <c r="E102" t="s">
+        <v>339</v>
+      </c>
+      <c r="F102" s="1">
         <v>34325</v>
       </c>
-      <c r="F102">
+      <c r="G102">
         <v>25</v>
       </c>
-      <c r="G102" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102">
+      <c r="H102" t="s">
         <v>3</v>
       </c>
       <c r="I102">
+        <v>3</v>
+      </c>
+      <c r="J102">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>1719102</v>
       </c>
@@ -4097,23 +4800,26 @@
       <c r="D103" t="s">
         <v>34</v>
       </c>
-      <c r="E103" s="1">
+      <c r="E103" t="s">
+        <v>340</v>
+      </c>
+      <c r="F103" s="1">
         <v>34325</v>
       </c>
-      <c r="F103">
+      <c r="G103">
         <v>25</v>
       </c>
-      <c r="G103" t="s">
-        <v>4</v>
-      </c>
-      <c r="H103">
-        <v>3</v>
+      <c r="H103" t="s">
+        <v>4</v>
       </c>
       <c r="I103">
+        <v>3</v>
+      </c>
+      <c r="J103">
         <v>5</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1719103</v>
       </c>
@@ -4126,23 +4832,26 @@
       <c r="D104" t="s">
         <v>88</v>
       </c>
-      <c r="E104" s="1">
+      <c r="E104" t="s">
+        <v>341</v>
+      </c>
+      <c r="F104" s="1">
         <v>34618</v>
       </c>
-      <c r="F104">
+      <c r="G104">
         <v>24</v>
       </c>
-      <c r="G104" t="s">
-        <v>4</v>
-      </c>
-      <c r="H104">
-        <v>3</v>
+      <c r="H104" t="s">
+        <v>4</v>
       </c>
       <c r="I104">
+        <v>3</v>
+      </c>
+      <c r="J104">
         <v>5</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1719104</v>
       </c>
@@ -4155,23 +4864,26 @@
       <c r="D105" t="s">
         <v>88</v>
       </c>
-      <c r="E105" s="1">
+      <c r="E105" t="s">
+        <v>342</v>
+      </c>
+      <c r="F105" s="1">
         <v>34671</v>
       </c>
-      <c r="F105">
+      <c r="G105">
         <v>24</v>
       </c>
-      <c r="G105" t="s">
-        <v>4</v>
-      </c>
-      <c r="H105">
-        <v>3</v>
+      <c r="H105" t="s">
+        <v>4</v>
       </c>
       <c r="I105">
+        <v>3</v>
+      </c>
+      <c r="J105">
         <v>5</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1719105</v>
       </c>
@@ -4184,23 +4896,26 @@
       <c r="D106" t="s">
         <v>40</v>
       </c>
-      <c r="E106" s="1">
+      <c r="E106" t="s">
+        <v>343</v>
+      </c>
+      <c r="F106" s="1">
         <v>34750</v>
       </c>
-      <c r="F106">
+      <c r="G106">
         <v>23</v>
       </c>
-      <c r="G106" t="s">
-        <v>3</v>
-      </c>
-      <c r="H106">
+      <c r="H106" t="s">
         <v>3</v>
       </c>
       <c r="I106">
+        <v>3</v>
+      </c>
+      <c r="J106">
         <v>5</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1719106</v>
       </c>
@@ -4213,23 +4928,26 @@
       <c r="D107" t="s">
         <v>40</v>
       </c>
-      <c r="E107" s="1">
+      <c r="E107" t="s">
+        <v>344</v>
+      </c>
+      <c r="F107" s="1">
         <v>34598</v>
       </c>
-      <c r="F107">
+      <c r="G107">
         <v>24</v>
       </c>
-      <c r="G107" t="s">
-        <v>4</v>
-      </c>
-      <c r="H107">
-        <v>3</v>
+      <c r="H107" t="s">
+        <v>4</v>
       </c>
       <c r="I107">
+        <v>3</v>
+      </c>
+      <c r="J107">
         <v>5</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1719107</v>
       </c>
@@ -4242,23 +4960,26 @@
       <c r="D108" t="s">
         <v>88</v>
       </c>
-      <c r="E108" s="1">
+      <c r="E108" t="s">
+        <v>345</v>
+      </c>
+      <c r="F108" s="1">
         <v>34864</v>
       </c>
-      <c r="F108">
+      <c r="G108">
         <v>23</v>
       </c>
-      <c r="G108" t="s">
-        <v>3</v>
-      </c>
-      <c r="H108">
+      <c r="H108" t="s">
         <v>3</v>
       </c>
       <c r="I108">
+        <v>3</v>
+      </c>
+      <c r="J108">
         <v>5</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1719108</v>
       </c>
@@ -4271,23 +4992,26 @@
       <c r="D109" t="s">
         <v>208</v>
       </c>
-      <c r="E109" s="1">
+      <c r="E109" t="s">
+        <v>346</v>
+      </c>
+      <c r="F109" s="1">
         <v>35051</v>
       </c>
-      <c r="F109">
+      <c r="G109">
         <v>23</v>
       </c>
-      <c r="G109" t="s">
-        <v>3</v>
-      </c>
-      <c r="H109">
+      <c r="H109" t="s">
         <v>3</v>
       </c>
       <c r="I109">
+        <v>3</v>
+      </c>
+      <c r="J109">
         <v>5</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>1719109</v>
       </c>
@@ -4300,23 +5024,26 @@
       <c r="D110" t="s">
         <v>210</v>
       </c>
-      <c r="E110" s="1">
+      <c r="E110" t="s">
+        <v>347</v>
+      </c>
+      <c r="F110" s="1">
         <v>34954</v>
       </c>
-      <c r="F110">
+      <c r="G110">
         <v>23</v>
       </c>
-      <c r="G110" t="s">
-        <v>3</v>
-      </c>
-      <c r="H110">
+      <c r="H110" t="s">
         <v>3</v>
       </c>
       <c r="I110">
+        <v>3</v>
+      </c>
+      <c r="J110">
         <v>5</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>1719110</v>
       </c>
@@ -4329,23 +5056,26 @@
       <c r="D111" t="s">
         <v>211</v>
       </c>
-      <c r="E111" s="1">
+      <c r="E111" t="s">
+        <v>348</v>
+      </c>
+      <c r="F111" s="1">
         <v>35175</v>
       </c>
-      <c r="F111">
+      <c r="G111">
         <v>22</v>
       </c>
-      <c r="G111" t="s">
-        <v>4</v>
-      </c>
-      <c r="H111">
-        <v>3</v>
+      <c r="H111" t="s">
+        <v>4</v>
       </c>
       <c r="I111">
+        <v>3</v>
+      </c>
+      <c r="J111">
         <v>5</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>1719111</v>
       </c>
@@ -4358,23 +5088,26 @@
       <c r="D112" t="s">
         <v>132</v>
       </c>
-      <c r="E112" s="1">
+      <c r="E112" t="s">
+        <v>349</v>
+      </c>
+      <c r="F112" s="1">
         <v>35044</v>
       </c>
-      <c r="F112">
+      <c r="G112">
         <v>23</v>
       </c>
-      <c r="G112" t="s">
-        <v>3</v>
-      </c>
-      <c r="H112">
+      <c r="H112" t="s">
         <v>3</v>
       </c>
       <c r="I112">
+        <v>3</v>
+      </c>
+      <c r="J112">
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>1719112</v>
       </c>
@@ -4387,23 +5120,26 @@
       <c r="D113" t="s">
         <v>132</v>
       </c>
-      <c r="E113" s="1">
+      <c r="E113" t="s">
+        <v>350</v>
+      </c>
+      <c r="F113" s="1">
         <v>35157</v>
       </c>
-      <c r="F113">
+      <c r="G113">
         <v>22</v>
       </c>
-      <c r="G113" t="s">
-        <v>4</v>
-      </c>
-      <c r="H113">
-        <v>3</v>
+      <c r="H113" t="s">
+        <v>4</v>
       </c>
       <c r="I113">
+        <v>3</v>
+      </c>
+      <c r="J113">
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>1719113</v>
       </c>
@@ -4416,23 +5152,26 @@
       <c r="D114" t="s">
         <v>132</v>
       </c>
-      <c r="E114" s="1">
+      <c r="E114" t="s">
+        <v>351</v>
+      </c>
+      <c r="F114" s="1">
         <v>34686</v>
       </c>
-      <c r="F114">
+      <c r="G114">
         <v>24</v>
       </c>
-      <c r="G114" t="s">
-        <v>3</v>
-      </c>
-      <c r="H114">
+      <c r="H114" t="s">
         <v>3</v>
       </c>
       <c r="I114">
+        <v>3</v>
+      </c>
+      <c r="J114">
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>1719114</v>
       </c>
@@ -4445,23 +5184,26 @@
       <c r="D115" t="s">
         <v>88</v>
       </c>
-      <c r="E115" s="1">
+      <c r="E115" t="s">
+        <v>352</v>
+      </c>
+      <c r="F115" s="1">
         <v>34687</v>
       </c>
-      <c r="F115">
+      <c r="G115">
         <v>24</v>
       </c>
-      <c r="G115" t="s">
-        <v>4</v>
-      </c>
-      <c r="H115">
-        <v>3</v>
+      <c r="H115" t="s">
+        <v>4</v>
       </c>
       <c r="I115">
+        <v>3</v>
+      </c>
+      <c r="J115">
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>1719115</v>
       </c>
@@ -4474,23 +5216,26 @@
       <c r="D116" t="s">
         <v>216</v>
       </c>
-      <c r="E116" s="1">
+      <c r="E116" t="s">
+        <v>353</v>
+      </c>
+      <c r="F116" s="1">
         <v>34323</v>
       </c>
-      <c r="F116">
+      <c r="G116">
         <v>25</v>
       </c>
-      <c r="G116" t="s">
-        <v>3</v>
-      </c>
-      <c r="H116">
+      <c r="H116" t="s">
         <v>3</v>
       </c>
       <c r="I116">
+        <v>3</v>
+      </c>
+      <c r="J116">
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>1719116</v>
       </c>
@@ -4503,23 +5248,26 @@
       <c r="D117" t="s">
         <v>92</v>
       </c>
-      <c r="E117" s="1">
+      <c r="E117" t="s">
+        <v>354</v>
+      </c>
+      <c r="F117" s="1">
         <v>34689</v>
       </c>
-      <c r="F117">
+      <c r="G117">
         <v>24</v>
       </c>
-      <c r="G117" t="s">
-        <v>4</v>
-      </c>
-      <c r="H117">
-        <v>3</v>
+      <c r="H117" t="s">
+        <v>4</v>
       </c>
       <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>1719117</v>
       </c>
@@ -4532,23 +5280,26 @@
       <c r="D118" t="s">
         <v>105</v>
       </c>
-      <c r="E118" s="1">
+      <c r="E118" t="s">
+        <v>355</v>
+      </c>
+      <c r="F118" s="1">
         <v>34325</v>
       </c>
-      <c r="F118">
+      <c r="G118">
         <v>25</v>
       </c>
-      <c r="G118" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118">
+      <c r="H118" t="s">
         <v>3</v>
       </c>
       <c r="I118">
+        <v>3</v>
+      </c>
+      <c r="J118">
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>1719118</v>
       </c>
@@ -4561,23 +5312,26 @@
       <c r="D119" t="s">
         <v>200</v>
       </c>
-      <c r="E119" s="1">
+      <c r="E119" t="s">
+        <v>356</v>
+      </c>
+      <c r="F119" s="1">
         <v>34325</v>
       </c>
-      <c r="F119">
+      <c r="G119">
         <v>25</v>
       </c>
-      <c r="G119" t="s">
-        <v>4</v>
-      </c>
-      <c r="H119">
-        <v>3</v>
+      <c r="H119" t="s">
+        <v>4</v>
       </c>
       <c r="I119">
+        <v>3</v>
+      </c>
+      <c r="J119">
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>1719119</v>
       </c>
@@ -4590,23 +5344,26 @@
       <c r="D120" t="s">
         <v>200</v>
       </c>
-      <c r="E120" s="1">
+      <c r="E120" t="s">
+        <v>357</v>
+      </c>
+      <c r="F120" s="1">
         <v>34618</v>
       </c>
-      <c r="F120">
+      <c r="G120">
         <v>24</v>
       </c>
-      <c r="G120" t="s">
-        <v>4</v>
-      </c>
-      <c r="H120">
-        <v>3</v>
+      <c r="H120" t="s">
+        <v>4</v>
       </c>
       <c r="I120">
+        <v>3</v>
+      </c>
+      <c r="J120">
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>1719120</v>
       </c>
@@ -4619,23 +5376,26 @@
       <c r="D121" t="s">
         <v>200</v>
       </c>
-      <c r="E121" s="1">
+      <c r="E121" t="s">
+        <v>358</v>
+      </c>
+      <c r="F121" s="1">
         <v>34671</v>
       </c>
-      <c r="F121">
+      <c r="G121">
         <v>24</v>
       </c>
-      <c r="G121" t="s">
-        <v>4</v>
-      </c>
-      <c r="H121">
-        <v>3</v>
+      <c r="H121" t="s">
+        <v>4</v>
       </c>
       <c r="I121">
+        <v>3</v>
+      </c>
+      <c r="J121">
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>1719121</v>
       </c>
@@ -4648,23 +5408,26 @@
       <c r="D122" t="s">
         <v>200</v>
       </c>
-      <c r="E122" s="1">
+      <c r="E122" t="s">
+        <v>359</v>
+      </c>
+      <c r="F122" s="1">
         <v>34750</v>
       </c>
-      <c r="F122">
+      <c r="G122">
         <v>23</v>
       </c>
-      <c r="G122" t="s">
-        <v>3</v>
-      </c>
-      <c r="H122">
+      <c r="H122" t="s">
         <v>3</v>
       </c>
       <c r="I122">
+        <v>3</v>
+      </c>
+      <c r="J122">
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>1719122</v>
       </c>
@@ -4677,23 +5440,26 @@
       <c r="D123" t="s">
         <v>200</v>
       </c>
-      <c r="E123" s="1">
+      <c r="E123" t="s">
+        <v>360</v>
+      </c>
+      <c r="F123" s="1">
         <v>34598</v>
       </c>
-      <c r="F123">
+      <c r="G123">
         <v>24</v>
       </c>
-      <c r="G123" t="s">
-        <v>4</v>
-      </c>
-      <c r="H123">
-        <v>3</v>
+      <c r="H123" t="s">
+        <v>4</v>
       </c>
       <c r="I123">
+        <v>3</v>
+      </c>
+      <c r="J123">
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>1719123</v>
       </c>
@@ -4706,23 +5472,26 @@
       <c r="D124" t="s">
         <v>55</v>
       </c>
-      <c r="E124" s="1">
+      <c r="E124" t="s">
+        <v>361</v>
+      </c>
+      <c r="F124" s="1">
         <v>34864</v>
       </c>
-      <c r="F124">
+      <c r="G124">
         <v>23</v>
       </c>
-      <c r="G124" t="s">
-        <v>3</v>
-      </c>
-      <c r="H124">
+      <c r="H124" t="s">
         <v>3</v>
       </c>
       <c r="I124">
+        <v>3</v>
+      </c>
+      <c r="J124">
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>1719124</v>
       </c>
@@ -4735,23 +5504,26 @@
       <c r="D125" t="s">
         <v>55</v>
       </c>
-      <c r="E125" s="1">
+      <c r="E125" t="s">
+        <v>362</v>
+      </c>
+      <c r="F125" s="1">
         <v>35051</v>
       </c>
-      <c r="F125">
+      <c r="G125">
         <v>23</v>
       </c>
-      <c r="G125" t="s">
-        <v>3</v>
-      </c>
-      <c r="H125">
+      <c r="H125" t="s">
         <v>3</v>
       </c>
       <c r="I125">
+        <v>3</v>
+      </c>
+      <c r="J125">
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>1719125</v>
       </c>
@@ -4764,23 +5536,26 @@
       <c r="D126" t="s">
         <v>55</v>
       </c>
-      <c r="E126" s="1">
+      <c r="E126" t="s">
+        <v>363</v>
+      </c>
+      <c r="F126" s="1">
         <v>34954</v>
       </c>
-      <c r="F126">
+      <c r="G126">
         <v>23</v>
       </c>
-      <c r="G126" t="s">
-        <v>3</v>
-      </c>
-      <c r="H126">
+      <c r="H126" t="s">
         <v>3</v>
       </c>
       <c r="I126">
+        <v>3</v>
+      </c>
+      <c r="J126">
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>1719126</v>
       </c>
@@ -4793,23 +5568,26 @@
       <c r="D127" t="s">
         <v>55</v>
       </c>
-      <c r="E127" s="1">
+      <c r="E127" t="s">
+        <v>364</v>
+      </c>
+      <c r="F127" s="1">
         <v>35175</v>
       </c>
-      <c r="F127">
+      <c r="G127">
         <v>22</v>
       </c>
-      <c r="G127" t="s">
-        <v>4</v>
-      </c>
-      <c r="H127">
-        <v>3</v>
+      <c r="H127" t="s">
+        <v>4</v>
       </c>
       <c r="I127">
+        <v>3</v>
+      </c>
+      <c r="J127">
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>1719127</v>
       </c>
@@ -4822,23 +5600,26 @@
       <c r="D128" t="s">
         <v>55</v>
       </c>
-      <c r="E128" s="1">
+      <c r="E128" t="s">
+        <v>334</v>
+      </c>
+      <c r="F128" s="1">
         <v>35044</v>
       </c>
-      <c r="F128">
+      <c r="G128">
         <v>23</v>
       </c>
-      <c r="G128" t="s">
-        <v>3</v>
-      </c>
-      <c r="H128">
+      <c r="H128" t="s">
         <v>3</v>
       </c>
       <c r="I128">
+        <v>3</v>
+      </c>
+      <c r="J128">
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>1719128</v>
       </c>
@@ -4851,23 +5632,26 @@
       <c r="D129" t="s">
         <v>34</v>
       </c>
-      <c r="E129" s="1">
+      <c r="E129" t="s">
+        <v>365</v>
+      </c>
+      <c r="F129" s="1">
         <v>35157</v>
       </c>
-      <c r="F129">
+      <c r="G129">
         <v>22</v>
       </c>
-      <c r="G129" t="s">
-        <v>4</v>
-      </c>
-      <c r="H129">
-        <v>3</v>
+      <c r="H129" t="s">
+        <v>4</v>
       </c>
       <c r="I129">
+        <v>3</v>
+      </c>
+      <c r="J129">
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>1719129</v>
       </c>
@@ -4880,23 +5664,26 @@
       <c r="D130" t="s">
         <v>138</v>
       </c>
-      <c r="E130" s="1">
+      <c r="E130" t="s">
+        <v>366</v>
+      </c>
+      <c r="F130" s="1">
         <v>34686</v>
       </c>
-      <c r="F130">
+      <c r="G130">
         <v>24</v>
       </c>
-      <c r="G130" t="s">
-        <v>3</v>
-      </c>
-      <c r="H130">
+      <c r="H130" t="s">
         <v>3</v>
       </c>
       <c r="I130">
+        <v>3</v>
+      </c>
+      <c r="J130">
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>1719130</v>
       </c>
@@ -4909,23 +5696,26 @@
       <c r="D131" t="s">
         <v>34</v>
       </c>
-      <c r="E131" s="1">
+      <c r="E131" t="s">
+        <v>367</v>
+      </c>
+      <c r="F131" s="1">
         <v>35175</v>
       </c>
-      <c r="F131">
+      <c r="G131">
         <v>22</v>
       </c>
-      <c r="G131" t="s">
-        <v>3</v>
-      </c>
-      <c r="H131">
+      <c r="H131" t="s">
         <v>3</v>
       </c>
       <c r="I131">
+        <v>3</v>
+      </c>
+      <c r="J131">
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>1719131</v>
       </c>
@@ -4938,23 +5728,26 @@
       <c r="D132" t="s">
         <v>114</v>
       </c>
-      <c r="E132" s="1">
+      <c r="E132" t="s">
+        <v>368</v>
+      </c>
+      <c r="F132" s="1">
         <v>35044</v>
       </c>
-      <c r="F132">
+      <c r="G132">
         <v>23</v>
       </c>
-      <c r="G132" t="s">
-        <v>4</v>
-      </c>
-      <c r="H132">
-        <v>3</v>
+      <c r="H132" t="s">
+        <v>4</v>
       </c>
       <c r="I132">
+        <v>3</v>
+      </c>
+      <c r="J132">
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>1719132</v>
       </c>
@@ -4967,19 +5760,22 @@
       <c r="D133" t="s">
         <v>237</v>
       </c>
-      <c r="E133" s="1">
+      <c r="E133" t="s">
+        <v>369</v>
+      </c>
+      <c r="F133" s="1">
         <v>34325</v>
       </c>
-      <c r="F133">
+      <c r="G133">
         <v>25</v>
       </c>
-      <c r="G133" t="s">
-        <v>3</v>
-      </c>
-      <c r="H133">
+      <c r="H133" t="s">
         <v>3</v>
       </c>
       <c r="I133">
+        <v>3</v>
+      </c>
+      <c r="J133">
         <v>6</v>
       </c>
     </row>
